--- a/biology/Médecine/Plan_Piratox/Plan_Piratox.xlsx
+++ b/biology/Médecine/Plan_Piratox/Plan_Piratox.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le plan Piratox est un volet spécialisé du plan gouvernemental Vigipirate comprenant une partie prévention et vigilance face à une menace terroriste de nature chimique, une partie plan d'urgence mis en place en France en cas d'intoxication chimique massive ainsi qu'un volet judiciaire comprenant la recherche, l'identification et la neutralisation des auteurs de l'attentat ou de l'acte malveillant. Le scénario le plus probable est celui d'une action terroriste avec diffusion d'un agent chimique toxique, comme l'attentat au gaz sarin dans le métro de Tokyo en 1995, l'atteinte à un site industriel traitant des produits toxiques ou la contamination volontaire de réseau d'eau potable.
@@ -513,7 +525,9 @@
           <t>Prise en charge des victimes d'un attentat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le plan Piratox s'ajoute au plan Rouge et s'articule autour de la décontamination :
 mise en place d'un cordon de police pour éviter que les victimes ne s'égarent ; ceci permet d'une part de les prendre en charge, et d'autre part d'éviter de propager la contamination, notamment aux urgences des hôpitaux où les victimes risqueraient d'être amenées ;
